--- a/dataset/fruits_train.xlsx
+++ b/dataset/fruits_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RandomForestWorkshop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DFA877-A0AB-4BFA-9861-8ACCF7EC3E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD267D4-101C-40F9-BBCF-B8CCA7F8558E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD253AF-918F-4559-9016-A4934EF5648F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Color</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6027E58-4CAE-4020-82E8-05CAF4DFFB7F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +529,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
